--- a/documents/example_docs_uni/учебный план.xlsx
+++ b/documents/example_docs_uni/учебный план.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60525929-2B9F-5E46-BC96-31782549F63E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2AD709-BC51-C544-B50A-D0D27E63B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>наименование предмета</t>
   </si>
@@ -53,6 +53,12 @@
   </si>
   <si>
     <t>лабораторные(кол-во академ. часов)</t>
+  </si>
+  <si>
+    <t>алгебра и геометрия</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -405,10 +411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -441,6 +447,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <v>54</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/documents/example_docs_uni/учебный план.xlsx
+++ b/documents/example_docs_uni/учебный план.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2AD709-BC51-C544-B50A-D0D27E63B2B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7000C53A-A337-8149-92ED-251D3D5400AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
